--- a/medicine/Enfance/Norbert_Klugmann/Norbert_Klugmann.xlsx
+++ b/medicine/Enfance/Norbert_Klugmann/Norbert_Klugmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norbert Klugmann, né le 27 août 1951 à Uelzen, en Basse-Saxe, est un écrivain, journaliste et scénariste allemand, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille originaire de Poméranie, il est le benjamin de trois enfants. Son père s'occupe d'une cantine de la station d'Uelzer.
 Après le lycée, il étudie, à partir de l'automne 1970, à l'Université de Hambourg, en études allemandes, puis en sociologie, en psychologie et en pédagogie, car il se destine à l'enseignement supérieur. Il prolonge ses études générales sur plusieurs années, suivant aussi des cours à la faculté de médecine.
@@ -548,22 +562,144 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Phil Parker
-Die Hinrichtung (1988)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Phil Parker</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Die Hinrichtung (1988)
 Dresdner Stollen (1989)
 Das Pendel des Pentagon (1990)
-Krieg der Sender (1991)
-Trilogie Sportreporter
-Doppelfehler (1996)
+Krieg der Sender (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Trilogie Sportreporter</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doppelfehler (1996)
 Treibschlag (1996)
-Zielschuss (1996)
-Trilogie Marchese
-Rebenblut (2004)
+Zielschuss (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Trilogie Marchese</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rebenblut (2004)
 Schlüsselgewalt (2004)
-Kabinettstück (2006)
-Autres romans
-Es muß im Leben doch mehr als alles geben (1981)
+Kabinettstück (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Es muß im Leben doch mehr als alles geben (1981)
 Vorübergehend zu Hause (1985)
 Der Schwede und der Schwarze (1986)
 Heißer Herbst, kalte Hirsche (1987)
@@ -591,56 +727,197 @@
 Die Mumien von Timmendorf (2012)
 Doctor Boff – Weiberkranckheiten (2012)
 Die Tochter des Salzhändlers (2014)
-Die Nacht des Narren (2014)
-Romans écrits en collaboration avec Peter Mathews
-Beule oder Wie man einen Tresor knackt (1984)
+Die Nacht des Narren (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans écrits en collaboration avec Peter Mathews</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Beule oder Wie man einen Tresor knackt (1984)
 Ein Kommissar für alle Fälle (1985)
 Flieg, Adler Kühn (1985)
 Die Schädiger (1986)
 Tote Hilfe (1990)
 Eine schöne Bescherung (1995) Publié en français sous le titre Un beau cadeau, traduit par Patrick Kermann, Paris, Gallimard, Série noire hors-collection, 1997  (ISBN 2-07-049656-2)
 Vorübergehend verstorben (1996)
-Land in Sicht (1999)
-Recueils de nouvelles
-Kleinkrieg (1996), en collaboration avec Peter Mathews
-Fürchtet Euch nicht (1998), en collaboration avec Peter Mathews
-Littérature d'enfance et de jeunesse
-Série Alegria Septem-Reihe
-Alegria Septem 1 – Der Bund der Sieben (2007)
+Land in Sicht (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kleinkrieg (1996), en collaboration avec Peter Mathews
+Fürchtet Euch nicht (1998), en collaboration avec Peter Mathews</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Alegria Septem-Reihe</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alegria Septem 1 – Der Bund der Sieben (2007)
 Alegria Septem 2 – Taube und Adler (2008)
 Alegria Septem 3 – Das Vermächtnis (2008)
-Alegria Septem 4 – Liebesreigen (2009)
-Autres publications
-Heinz Erhardt, dieser Schelm (1987)
+Alegria Septem 4 – Liebesreigen (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Heinz Erhardt, dieser Schelm (1987)
 Heinz Erhardt - Die Biographie (2009)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Norbert_Klugmann</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norbert_Klugmann</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1987 : Beule oder Wie man einen Tresor knackt, téléfilm allemand de Ralf Gregan
 1988 - 1992 : Großstadtrevier : deux épisodes
